--- a/src/users.xlsx
+++ b/src/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wagomez/Documents/BestelVoicePorts/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91FC43A7-1903-224C-A954-8AC30D9B0AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDA2269-7A97-0E44-92C6-5677F2E1A2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="5380" windowWidth="27640" windowHeight="16940" xr2:uid="{1EB7FF39-F018-1949-A1B5-AC66D0346B45}"/>
+    <workbookView xWindow="8200" yWindow="4360" windowWidth="27640" windowHeight="16940" xr2:uid="{1EB7FF39-F018-1949-A1B5-AC66D0346B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>user_name</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>asas</t>
+  </si>
+  <si>
+    <t>GIF</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +476,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
